--- a/src/analysis_examples/er4000/results_er4000/animal_03/cosinor_animal_03_tmp.xlsx
+++ b/src/analysis_examples/er4000/results_er4000/animal_03/cosinor_animal_03_tmp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,53 +571,55 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.97000000000015</v>
+        <v>25.50000000000055</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.766980430861764e-07</v>
+        <v>9.927504263096409e-09</v>
       </c>
       <c r="H2" t="n">
-        <v>4.70449291437284e-07</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>3.172644230120319e-08</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6710926719905884</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>0.4866317634338735</v>
+        <v>0.7954155341459099</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.27968685438180074, 0.6935766724859462]</t>
+          <t>[0.46030109520207674, 1.1305299730897431]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6.976710400952157e-06</v>
+        <v>7.139653652066258e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>6.976710400952157e-06</v>
+        <v>7.139653652066258e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.849105585896695</v>
+        <v>2.446605690183042</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.327105669325773, -1.3711055024676178]</t>
+          <t>[2.0440793041375027, 2.8491320762285817]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.697753049256789e-12</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.697753049256789e-12</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>35.62186775442784</v>
+        <v>36.60522751132503</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[35.506219566837345, 35.737515942018334]</t>
+          <t>[36.43306353592746, 36.77739148672261]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6.759939939939986</v>
+        <v>15.5705705705709</v>
       </c>
       <c r="X2" t="n">
-        <v>5.012472472472507</v>
+        <v>13.93693693693723</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.507407407407465</v>
+        <v>17.20420420420458</v>
       </c>
     </row>
     <row r="3">
@@ -645,14 +647,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,18 +663,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>4.11193712824132e-16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.110223024625157e-16</v>
-      </c>
+        <v>6.579099405186112e-16</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>0.4252705635322513</v>
+        <v>0.9995582072287164</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[0.36388865312783025, 0.48665247393667244]</t>
+          <t>[0.9285580815374104, 1.0705583329200223]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -682,11 +682,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.603816069400194</v>
+        <v>2.19502669890458</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.440289725069193, 1.7673424137311953]</t>
+          <t>[2.1195530015210418, 2.270500396288118]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -696,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>35.56953593193734</v>
+        <v>36.5335726112934</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[35.528443315206594, 35.61062854866808]</t>
+          <t>[36.49665871083259, 36.57048651175421]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>17.72492492492514</v>
+        <v>15.52452452452471</v>
       </c>
       <c r="X3" t="n">
-        <v>17.10550550550571</v>
+        <v>15.23791791791811</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.34434434434457</v>
+        <v>15.81113113113132</v>
       </c>
     </row>
     <row r="4">
@@ -728,14 +728,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>23.98000000000031</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -744,16 +744,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H4" t="n">
-        <v>4.11193712824132e-16</v>
+        <v>6.579099405186112e-16</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>0.5898624478720969</v>
+        <v>0.8244727870485775</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[0.5142845412910866, 0.6654403544531071]</t>
+          <t>[0.7355732654067211, 0.913372308690434]</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -763,11 +763,11 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-3.031526844905466</v>
+        <v>2.018921405009657</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[-3.16989529010862, -2.893158399702312]</t>
+          <t>[1.9182898084982725, 2.119553001521041]</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -777,11 +777,11 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>35.26657857751698</v>
+        <v>36.39408304552244</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[35.217838897330196, 35.315318257703765]</t>
+          <t>[36.346749509543784, 36.44141658150109]</t>
         </is>
       </c>
       <c r="U4" t="n">
@@ -791,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>11.56992992993008</v>
+        <v>16.16612612612632</v>
       </c>
       <c r="X4" t="n">
-        <v>11.04184184184198</v>
+        <v>15.78462462462482</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.09801801801817</v>
+        <v>16.54762762762783</v>
       </c>
     </row>
     <row r="5">
@@ -809,62 +809,60 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4_hypo_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>23.9000000000003</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>7.294165271787278e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>4.11193712824132e-16</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.227841271433938e-06</v>
-      </c>
+        <v>4.103569980914167e-13</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>0.7555364762016481</v>
+        <v>0.8174841104504722</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[0.6415503128867961, 0.8695226395165001]</t>
+          <t>[0.5558681172994326, 1.0791001036015118]</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>3.164085882190193e-09</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>4.21878117625359e-09</v>
       </c>
       <c r="O5" t="n">
-        <v>2.232763547596349</v>
+        <v>-0.779894872963232</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[2.081816152829271, 2.383710942363427]</t>
+          <t>[-1.0943686120613094, -0.4654211338651546]</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.898453402704448e-06</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.898453402704448e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>35.36234979860127</v>
+        <v>36.26295110014394</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[35.30392439186482, 35.420775205337726]</t>
+          <t>[36.125057529025696, 36.40084467126218]</t>
         </is>
       </c>
       <c r="U5" t="n">
@@ -874,94 +872,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>15.4070070070072</v>
+        <v>3.013733733733776</v>
       </c>
       <c r="X5" t="n">
-        <v>14.83283283283301</v>
+        <v>1.798518518518543</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.98118118118139</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>24.38000000000037</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.110223024625157e-16</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.11193712824132e-16</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>0.7133299516564939</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>[0.612218462045039, 0.8144414412679488]</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-1.886842434588464</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>[-2.0377898293555416, -1.7358950398213873]</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>35.53342736170768</v>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>[35.47551106167077, 35.59134366174459]</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7.321321321321435</v>
-      </c>
-      <c r="X6" t="n">
-        <v>6.735615615615719</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>7.90702702702715</v>
+        <v>4.228948948949009</v>
       </c>
     </row>
   </sheetData>
